--- a/freq.xlsx
+++ b/freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F651CE88-0C3C-4B6D-98B8-910C1F668C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B826F50E-89F1-4744-95ED-1435A36B8D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE9844D8-3138-47B4-A3C1-0073EFCEE360}"/>
+    <workbookView xWindow="4305" yWindow="2175" windowWidth="27540" windowHeight="16710" xr2:uid="{FE9844D8-3138-47B4-A3C1-0073EFCEE360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Eb</t>
   </si>
   <si>
-    <t>Db</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Ab</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -76,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,7 +109,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A705EA-A9AC-4F0E-B40B-96E7880E3F3D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -436,7 +438,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1">
         <f>C1/2</f>
@@ -473,7 +475,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <f t="shared" ref="B2:D2" si="2">C2/2</f>
@@ -510,7 +512,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:D3" si="4">C3/2</f>
@@ -547,7 +549,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:D4" si="6">C4/2</f>
@@ -694,7 +696,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ref="B8:D8" si="15">C8/2</f>
@@ -731,7 +733,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ref="B9:D9" si="17">C9/2</f>
@@ -842,7 +844,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ref="B12:D12" si="23">C12/2</f>
